--- a/Liste_Zeigerdiagramme/Liste_Zeigerdiagramme.xlsx
+++ b/Liste_Zeigerdiagramme/Liste_Zeigerdiagramme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Marco\Git\Zeigerdiagramme_NusII\Liste_Zeigerdiagramme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EE0F14D-B161-4F80-A37B-E6EBFFB2FBEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB0C60F-E32B-4C4A-B714-8629CD91640C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" xr2:uid="{E43A5F62-9FE2-4985-9B9F-B24F7056F595}"/>
   </bookViews>
@@ -30,16 +30,151 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t xml:space="preserve">Liste der zu zeichnenden Zeigerdiagramme </t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommentar </t>
+  </si>
+  <si>
+    <t>Wechselgrössen</t>
+  </si>
+  <si>
+    <t>Kapitel:</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Zeigerdiagramm I a)</t>
+  </si>
+  <si>
+    <t>Zeigerdiagramm I b)</t>
+  </si>
+  <si>
+    <t>Zeigerdiagramm II a)</t>
+  </si>
+  <si>
+    <t>müsste komplettes Bild mit Sin/Cos-Schwingung erstellt werden</t>
+  </si>
+  <si>
+    <t>ohne Sin/Cos-Schwingung</t>
+  </si>
+  <si>
+    <t>Zeigerdiagramm II b)</t>
+  </si>
+  <si>
+    <t>Zeigerdiagramm III a)</t>
+  </si>
+  <si>
+    <t>Zeigerdiagramm III b)</t>
+  </si>
+  <si>
+    <t>Zeigerdiagramm III c)</t>
+  </si>
+  <si>
+    <t>Zeigerdiagramm III d)</t>
+  </si>
+  <si>
+    <t>Zeigerdiagramm III e)</t>
+  </si>
+  <si>
+    <t>Zeigerdiagramm IV a)</t>
+  </si>
+  <si>
+    <t>Zeigerdiagramm IV b)</t>
+  </si>
+  <si>
+    <t>Zeigerdiagramm IV c)</t>
+  </si>
+  <si>
+    <t>Widertsand im Wechselstromkreis c)</t>
+  </si>
+  <si>
+    <t>Induktivität im Wechselstromkreis c)</t>
+  </si>
+  <si>
+    <t>Kondensator im Wechselstromkreis c)</t>
+  </si>
+  <si>
+    <t>Beispiel - Konstruktion eines Zeigerdiagramms b)</t>
+  </si>
+  <si>
+    <t>Grundbegriffe der komplexen Rechnung a)</t>
+  </si>
+  <si>
+    <t>Rechenoperationen mit komplexen Zahlen a)</t>
+  </si>
+  <si>
+    <t>Rechenoperationen mit komplexen Zahlen b)</t>
+  </si>
+  <si>
+    <t>Rechenoperationen mit komplexen Zahlen c)</t>
+  </si>
+  <si>
+    <t>Rechenoperationen mit komplexen Zahlen d)</t>
+  </si>
+  <si>
+    <t>Komplexe Wechselstromrechnung a)</t>
+  </si>
+  <si>
+    <t>Zeiger für komplexe Wechselstromrechnung a)</t>
+  </si>
+  <si>
+    <t>Zeiger für komplexe Wechselstromrechnung b)</t>
+  </si>
+  <si>
+    <t>Strom-Sapnnungsbeziehung für Induktivität a)</t>
+  </si>
+  <si>
+    <t>Strom-Sapnnungsbeziehung für Induktivität b)</t>
+  </si>
+  <si>
+    <t>Strom-Sapnnungsbeziehung im Bildbereich a)</t>
+  </si>
+  <si>
+    <t>Strom-Sapnnungsbeziehung im Bildbereich b)</t>
+  </si>
+  <si>
+    <t>Komplexe Wechselstromrechnung - Beispiel II b)</t>
+  </si>
+  <si>
+    <t>Strom-Spannungs- und Widerstandsdiagramm b)</t>
+  </si>
+  <si>
+    <t>Strom-Spannungs- und Widerstandsdiagramm c)</t>
+  </si>
+  <si>
+    <t>Ausstehend</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>In Arbeit</t>
+  </si>
+  <si>
+    <t>Erledigt</t>
+  </si>
+  <si>
+    <t>müsste komplettes Bild mit Sin/Cos-Schwingung erstellt werden (selbe wie Nr.  1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,16 +182,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -64,12 +254,389 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -384,23 +951,548 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D35F59-E36D-4CC4-97A3-9F1D0EFDD603}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="8" width="66.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="J2" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J3" s="15"/>
+      <c r="K3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="J4" s="16"/>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="17"/>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="31">
+        <v>1</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="22">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="22">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="9">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="22">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="22">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="22">
+        <v>11</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="9">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="22">
+        <v>13</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="9">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="22">
+        <v>15</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="9">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="22">
+        <v>17</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="9">
+        <v>18</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="22">
+        <v>19</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
+        <v>20</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="22">
+        <v>21</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="9">
+        <v>22</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="22">
+        <v>23</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="9">
+        <v>24</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="22">
+        <v>25</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="9">
+        <v>26</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="22">
+        <v>27</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="9">
+        <v>28</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="22">
+        <v>29</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="9">
+        <v>30</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="24">
+        <v>31</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
     </row>
   </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>